--- a/Документация для тестирования.xlsx
+++ b/Документация для тестирования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Описание Тестирования" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="304">
   <si>
     <t>1.</t>
   </si>
@@ -321,27 +321,6 @@
   </si>
   <si>
     <t xml:space="preserve">Страница авторизации. По номеру телефона,по почте, по логину, по лицевому счету. Предыдущий ввод был неудачный. Дополнительно появилась "Капча" </t>
-  </si>
-  <si>
-    <t>Клик по иконке социальной сети VK</t>
-  </si>
-  <si>
-    <t>Редирект на страницу авторизации соц сети</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыта старница авторизации соц сети </t>
-  </si>
-  <si>
-    <t>Клик по иконке социальной сети ОК</t>
-  </si>
-  <si>
-    <t>Клик по иконке социальной сети Mail.ru</t>
-  </si>
-  <si>
-    <t>Клик по иконке социальной сети Google</t>
-  </si>
-  <si>
-    <t>Клик по иконке социальной сети Yandex</t>
   </si>
   <si>
     <t>Клик по "забыл пароль"</t>
@@ -1041,17 +1020,58 @@
   <si>
     <t>https://www.loom.com/share/d0a754d16ab3422fbc13ee1874121412</t>
   </si>
+  <si>
+    <t>Переход на страницу востановления пароля</t>
+  </si>
+  <si>
+    <t>Страница восстановления пароля</t>
+  </si>
+  <si>
+    <t>Ввод данных для востановления пароля</t>
+  </si>
+  <si>
+    <t>Переход на страницу ввода смс-кода</t>
+  </si>
+  <si>
+    <t>Открыта старница для ввода смс-кода</t>
+  </si>
+  <si>
+    <t>Старница для ввода смс-кода</t>
+  </si>
+  <si>
+    <t>смс-код введен</t>
+  </si>
+  <si>
+    <t>Переход на страницу создания новго пароля</t>
+  </si>
+  <si>
+    <t>Открыта старница создания новго пароля</t>
+  </si>
+  <si>
+    <t>Старница создания новго пароля</t>
+  </si>
+  <si>
+    <t>Введен новый пароль</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1128,7 +1148,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,12 +1193,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1541,13 +1555,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1559,25 +1573,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1605,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1640,69 +1654,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1762,84 +1713,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1848,21 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1873,12 +1761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1888,39 +1770,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2294,7 +2305,7 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="63" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2329,10 +2340,10 @@
       <c r="B22" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -2347,28 +2358,28 @@
       <c r="B24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="85"/>
+      <c r="C24" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="94"/>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="40"/>
+      <c r="C25" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="93"/>
     </row>
     <row r="26" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="D26" s="85"/>
+        <v>271</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2390,7 +2401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
@@ -2410,31 +2421,31 @@
         <v>17</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
       <c r="G6" s="10"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -2461,16 +2472,16 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="51" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -2479,60 +2490,60 @@
       <c r="G9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="132" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="21" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="51"/>
+      <c r="H10" s="133"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="133"/>
     </row>
     <row r="12" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="73"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="134"/>
     </row>
     <row r="13" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="45" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -2541,60 +2552,60 @@
       <c r="G13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="106" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="21" t="s">
         <v>73</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="45"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="108"/>
     </row>
     <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="45" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="25" t="s">
@@ -2603,57 +2614,57 @@
       <c r="G17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="106" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="20" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="107"/>
     </row>
     <row r="20" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="108"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
+      <c r="B24" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="128"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
@@ -2679,1002 +2690,1002 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="81" t="s">
+      <c r="B27" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="60" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="32"/>
-      <c r="F27" s="81" t="s">
-        <v>107</v>
+      <c r="F27" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="G27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="82" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="87" t="s">
+      <c r="B28" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>125</v>
-      </c>
       <c r="F28" s="25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="88" t="s">
+      <c r="H28" s="118" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="91"/>
+      <c r="H29" s="119"/>
     </row>
     <row r="30" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="94"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="120"/>
     </row>
     <row r="31" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>126</v>
+      <c r="B31" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="115" t="s">
+        <v>119</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="88" t="s">
+      <c r="H31" s="118" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="91"/>
+      <c r="H32" s="119"/>
     </row>
     <row r="33" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="63" t="s">
+      <c r="B33" s="114"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="H33" s="120"/>
+    </row>
+    <row r="34" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="113"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="94"/>
-    </row>
-    <row r="34" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="86" t="s">
+      <c r="H35" s="119"/>
+      <c r="M35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="114"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="120"/>
+    </row>
+    <row r="37" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35" s="91"/>
-      <c r="M35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" s="94"/>
-    </row>
-    <row r="37" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="87" t="s">
-        <v>131</v>
+      <c r="E37" s="115" t="s">
+        <v>124</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="88" t="s">
+      <c r="H37" s="118" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="119"/>
+    </row>
+    <row r="39" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="114"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="120"/>
+    </row>
+    <row r="40" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="D40" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="124"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="91"/>
-    </row>
-    <row r="39" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="94"/>
-    </row>
-    <row r="40" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="103" t="s">
+      <c r="G41" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="119"/>
+    </row>
+    <row r="42" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="124"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="119"/>
+    </row>
+    <row r="43" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B43" s="124"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="119"/>
+    </row>
+    <row r="44" spans="2:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="125"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="120"/>
+    </row>
+    <row r="45" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="113"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="119"/>
+    </row>
+    <row r="47" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="113"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="66"/>
+      <c r="H47" s="119"/>
+    </row>
+    <row r="48" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B48" s="113"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="119"/>
+    </row>
+    <row r="49" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="114"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="120"/>
+    </row>
+    <row r="50" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="25" t="s">
+      <c r="C50" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="124"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="119"/>
+    </row>
+    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="124"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="66"/>
+      <c r="H52" s="119"/>
+    </row>
+    <row r="53" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B53" s="124"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" s="119"/>
+    </row>
+    <row r="54" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="125"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="88" t="s">
+      <c r="H54" s="120"/>
+    </row>
+    <row r="55" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="123" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="118" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="104"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="91"/>
-    </row>
-    <row r="42" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="104"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="91"/>
-    </row>
-    <row r="43" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B43" s="104"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="91"/>
-    </row>
-    <row r="44" spans="2:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="107"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="108" t="s">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="124"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="H56" s="119"/>
+    </row>
+    <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="124"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G57" s="66"/>
+      <c r="H57" s="119"/>
+    </row>
+    <row r="58" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B58" s="124"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" s="119"/>
+    </row>
+    <row r="59" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="125"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="120"/>
+    </row>
+    <row r="60" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="115" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="113"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H61" s="119"/>
+    </row>
+    <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="113"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62" s="66"/>
+      <c r="H62" s="119"/>
+    </row>
+    <row r="63" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="113"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" s="66"/>
+      <c r="H63" s="119"/>
+    </row>
+    <row r="64" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B64" s="113"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" s="119"/>
+    </row>
+    <row r="65" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="113"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="119"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="113"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="119"/>
+    </row>
+    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="113"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="119"/>
+    </row>
+    <row r="68" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="114"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="120"/>
+    </row>
+    <row r="69" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69" s="118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="113"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" s="119"/>
+    </row>
+    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="113"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="66"/>
+      <c r="H71" s="119"/>
+    </row>
+    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="113"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="66"/>
+      <c r="H72" s="119"/>
+    </row>
+    <row r="73" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B73" s="113"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="H73" s="119"/>
+    </row>
+    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="113"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="H74" s="119"/>
+    </row>
+    <row r="75" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="114"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="G75" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="H75" s="120"/>
+    </row>
+    <row r="76" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B76" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="F76" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="H44" s="94"/>
-    </row>
-    <row r="45" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="F45" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="H45" s="88" t="s">
+      <c r="G76" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="H76" s="118" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="97" t="s">
+    <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="113"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G77" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="91"/>
-    </row>
-    <row r="47" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" s="97"/>
-      <c r="H47" s="91"/>
-    </row>
-    <row r="48" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="H48" s="91"/>
-    </row>
-    <row r="49" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="92"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="G49" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="H49" s="94"/>
-    </row>
-    <row r="50" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="104"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="91"/>
-    </row>
-    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="104"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="97"/>
-      <c r="H52" s="91"/>
-    </row>
-    <row r="53" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B53" s="104"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53" s="91"/>
-    </row>
-    <row r="54" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="107"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="H54" s="94"/>
-    </row>
-    <row r="55" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="G55" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="H55" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="104"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="G56" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="H56" s="91"/>
-    </row>
-    <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="104"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G57" s="97"/>
-      <c r="H57" s="91"/>
-    </row>
-    <row r="58" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="104"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="G58" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="H58" s="91"/>
-    </row>
-    <row r="59" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="107"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="H59" s="94"/>
-    </row>
-    <row r="60" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="87" t="s">
+      <c r="H77" s="119"/>
+    </row>
+    <row r="78" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="113"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="119"/>
+    </row>
+    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="113"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="119"/>
+    </row>
+    <row r="80" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B80" s="113"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80" s="119"/>
+    </row>
+    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="113"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G81" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="G60" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="H60" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="97" t="s">
+      <c r="H81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="113"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G61" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="H61" s="91"/>
-    </row>
-    <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="97" t="s">
+      <c r="G82" s="21"/>
+      <c r="H82" s="119"/>
+    </row>
+    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="113"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="G62" s="97"/>
-      <c r="H62" s="91"/>
-    </row>
-    <row r="63" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="89"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="97" t="s">
+      <c r="G83" s="21"/>
+      <c r="H83" s="119"/>
+    </row>
+    <row r="84" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="114"/>
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="42" t="s">
         <v>188</v>
-      </c>
-      <c r="G63" s="97"/>
-      <c r="H63" s="91"/>
-    </row>
-    <row r="64" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B64" s="89"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="G64" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="H64" s="91"/>
-    </row>
-    <row r="65" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="97" t="s">
-        <v>199</v>
-      </c>
-      <c r="H65" s="91"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="89"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="91"/>
-    </row>
-    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="91"/>
-    </row>
-    <row r="68" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="92"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="G68" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="94"/>
-    </row>
-    <row r="69" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F69" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="G69" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="H69" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="89"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="G70" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="H70" s="91"/>
-    </row>
-    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="89"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="G71" s="97"/>
-      <c r="H71" s="91"/>
-    </row>
-    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="89"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="G72" s="97"/>
-      <c r="H72" s="91"/>
-    </row>
-    <row r="73" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B73" s="89"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="G73" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="H73" s="91"/>
-    </row>
-    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="89"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="G74" s="97" t="s">
-        <v>199</v>
-      </c>
-      <c r="H74" s="91"/>
-    </row>
-    <row r="75" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="92"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="G75" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="H75" s="94"/>
-    </row>
-    <row r="76" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B76" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="C76" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="E76" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="F76" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="G76" s="95" t="s">
-        <v>206</v>
-      </c>
-      <c r="H76" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="89"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G77" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="H77" s="91"/>
-    </row>
-    <row r="78" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="89"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G78" s="21"/>
-      <c r="H78" s="91"/>
-    </row>
-    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="89"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="91"/>
-    </row>
-    <row r="80" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B80" s="89"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="H80" s="91"/>
-    </row>
-    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="89"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="H81" s="91"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="89"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="G82" s="21"/>
-      <c r="H82" s="91"/>
-    </row>
-    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="89"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="G83" s="21"/>
-      <c r="H83" s="91"/>
-    </row>
-    <row r="84" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="92"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="63" t="s">
-        <v>195</v>
       </c>
       <c r="G84" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H84" s="94"/>
+      <c r="H84" s="120"/>
     </row>
     <row r="85" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B85" s="103" t="s">
+      <c r="B85" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="C85" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="D85" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E85" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F85" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="G85" s="95" t="s">
+      <c r="E85" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="H85" s="109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="124"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H86" s="110"/>
+    </row>
+    <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="124"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="G87" s="66"/>
+      <c r="H87" s="110"/>
+    </row>
+    <row r="88" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="124"/>
+      <c r="C88" s="116"/>
+      <c r="D88" s="116"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" s="66"/>
+      <c r="H88" s="110"/>
+    </row>
+    <row r="89" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="124"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="116"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="G89" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="110"/>
+    </row>
+    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="124"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="H90" s="110"/>
+    </row>
+    <row r="91" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="125"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="H91" s="111"/>
+    </row>
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="H85" s="111" t="s">
+      <c r="C92" s="100" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="95"/>
+      <c r="F92" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="G92" s="36"/>
+      <c r="H92" s="106" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" s="104"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G86" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="H86" s="112"/>
-    </row>
-    <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="104"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="G87" s="97"/>
-      <c r="H87" s="112"/>
-    </row>
-    <row r="88" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B88" s="104"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="G88" s="97"/>
-      <c r="H88" s="112"/>
-    </row>
-    <row r="89" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B89" s="104"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="G89" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="H89" s="112"/>
-    </row>
-    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="104"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="G90" s="97" t="s">
-        <v>199</v>
-      </c>
-      <c r="H90" s="112"/>
-    </row>
-    <row r="91" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="107"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="G91" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="H91" s="113"/>
-    </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="139" t="s">
-        <v>295</v>
-      </c>
-      <c r="D92" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="136"/>
-      <c r="F92" s="129" t="s">
-        <v>296</v>
-      </c>
-      <c r="G92" s="36"/>
-      <c r="H92" s="44" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="93" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="G93" s="106" t="s">
-        <v>298</v>
-      </c>
-      <c r="H93" s="45"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="104"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="G93" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="H93" s="107"/>
     </row>
     <row r="94" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="43"/>
-      <c r="C94" s="140"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="81"/>
-      <c r="G94" s="142" t="s">
-        <v>299</v>
-      </c>
-      <c r="H94" s="46"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="105"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="H94" s="108"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="C97" s="114"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="114"/>
-      <c r="F97" s="114"/>
+      <c r="B97" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="122"/>
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="122"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
@@ -3700,319 +3711,319 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="89" t="s">
+      <c r="B100" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="F100" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="G100" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="H100" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="113"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="116"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H101" s="110"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="113"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="116"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H102" s="110"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="113"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="116"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="110"/>
+    </row>
+    <row r="104" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="113"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H104" s="110"/>
+    </row>
+    <row r="105" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B105" s="113"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="116"/>
+      <c r="E105" s="116"/>
+      <c r="F105" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H105" s="110"/>
+    </row>
+    <row r="106" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B106" s="113"/>
+      <c r="C106" s="116"/>
+      <c r="D106" s="116"/>
+      <c r="E106" s="116"/>
+      <c r="F106" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="G106" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H106" s="110"/>
+    </row>
+    <row r="107" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="113"/>
+      <c r="C107" s="116"/>
+      <c r="D107" s="116"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="H107" s="110"/>
+    </row>
+    <row r="108" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="114"/>
+      <c r="C108" s="117"/>
+      <c r="D108" s="117"/>
+      <c r="E108" s="117"/>
+      <c r="F108" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G108" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="H108" s="111"/>
+    </row>
+    <row r="109" spans="2:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="E109" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="F109" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="G109" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="H109" s="118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="113"/>
+      <c r="C110" s="116"/>
+      <c r="D110" s="116"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G110" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="H110" s="119"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="113"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G111" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="H111" s="119"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="113"/>
+      <c r="C112" s="116"/>
+      <c r="D112" s="116"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" s="66"/>
+      <c r="H112" s="119"/>
+    </row>
+    <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="113"/>
+      <c r="C113" s="116"/>
+      <c r="D113" s="116"/>
+      <c r="E113" s="116"/>
+      <c r="F113" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="G113" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="H113" s="119"/>
+    </row>
+    <row r="114" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B114" s="113"/>
+      <c r="C114" s="116"/>
+      <c r="D114" s="116"/>
+      <c r="E114" s="116"/>
+      <c r="F114" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="G114" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H114" s="119"/>
+    </row>
+    <row r="115" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B115" s="113"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="116"/>
+      <c r="E115" s="116"/>
+      <c r="F115" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="G115" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H115" s="119"/>
+    </row>
+    <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" s="113"/>
+      <c r="C116" s="116"/>
+      <c r="D116" s="116"/>
+      <c r="E116" s="116"/>
+      <c r="F116" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="G116" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="H116" s="119"/>
+    </row>
+    <row r="117" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="114"/>
+      <c r="C117" s="117"/>
+      <c r="D117" s="117"/>
+      <c r="E117" s="117"/>
+      <c r="F117" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G117" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="H117" s="120"/>
+    </row>
+    <row r="118" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="C100" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="D100" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="F100" s="97" t="s">
-        <v>217</v>
-      </c>
-      <c r="G100" s="97" t="s">
-        <v>218</v>
-      </c>
-      <c r="H100" s="112" t="s">
+      <c r="D118" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="E118" s="115" t="s">
+        <v>270</v>
+      </c>
+      <c r="F118" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="G118" s="36"/>
+      <c r="H118" s="109" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="89"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H101" s="112"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="89"/>
-      <c r="C102" s="90"/>
-      <c r="D102" s="90"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="112"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="89"/>
-      <c r="C103" s="90"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="112"/>
-    </row>
-    <row r="104" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="89"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="G104" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="H104" s="112"/>
-    </row>
-    <row r="105" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B105" s="89"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H105" s="112"/>
-    </row>
-    <row r="106" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B106" s="89"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="G106" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="H106" s="112"/>
-    </row>
-    <row r="107" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="89"/>
-      <c r="C107" s="90"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="G107" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="H107" s="112"/>
-    </row>
-    <row r="108" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="92"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="93"/>
-      <c r="E108" s="93"/>
-      <c r="F108" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="G108" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="H108" s="113"/>
-    </row>
-    <row r="109" spans="2:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="D109" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="E109" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="F109" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="G109" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="H109" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="89"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="97" t="s">
-        <v>219</v>
-      </c>
-      <c r="G110" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="H110" s="91"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="89"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="90"/>
-      <c r="F111" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="G111" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="H111" s="91"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="89"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="90"/>
-      <c r="E112" s="90"/>
-      <c r="F112" s="97" t="s">
-        <v>223</v>
-      </c>
-      <c r="G112" s="97"/>
-      <c r="H112" s="91"/>
-    </row>
-    <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="89"/>
-      <c r="C113" s="90"/>
-      <c r="D113" s="90"/>
-      <c r="E113" s="90"/>
-      <c r="F113" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="G113" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="H113" s="91"/>
-    </row>
-    <row r="114" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B114" s="89"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="90"/>
-      <c r="E114" s="90"/>
-      <c r="F114" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="G114" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="H114" s="91"/>
-    </row>
-    <row r="115" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B115" s="89"/>
-      <c r="C115" s="90"/>
-      <c r="D115" s="90"/>
-      <c r="E115" s="90"/>
-      <c r="F115" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="G115" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="H115" s="91"/>
-    </row>
-    <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="89"/>
-      <c r="C116" s="90"/>
-      <c r="D116" s="90"/>
-      <c r="E116" s="90"/>
-      <c r="F116" s="97" t="s">
-        <v>228</v>
-      </c>
-      <c r="G116" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="H116" s="91"/>
-    </row>
-    <row r="117" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="92"/>
-      <c r="C117" s="93"/>
-      <c r="D117" s="93"/>
-      <c r="E117" s="93"/>
-      <c r="F117" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="G117" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="H117" s="94"/>
-    </row>
-    <row r="118" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="C118" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="D118" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="E118" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="F118" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="G118" s="36"/>
-      <c r="H118" s="111" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="119" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B119" s="89"/>
-      <c r="C119" s="90"/>
-      <c r="D119" s="90"/>
-      <c r="E119" s="90"/>
-      <c r="F119" s="106" t="s">
-        <v>280</v>
-      </c>
-      <c r="G119" s="106" t="s">
-        <v>281</v>
-      </c>
-      <c r="H119" s="112"/>
+      <c r="B119" s="113"/>
+      <c r="C119" s="116"/>
+      <c r="D119" s="116"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="G119" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="H119" s="110"/>
     </row>
     <row r="120" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="92"/>
-      <c r="C120" s="93"/>
-      <c r="D120" s="93"/>
-      <c r="E120" s="93"/>
-      <c r="F120" s="109" t="s">
-        <v>282</v>
-      </c>
-      <c r="G120" s="109" t="s">
-        <v>281</v>
-      </c>
-      <c r="H120" s="113"/>
+      <c r="B120" s="114"/>
+      <c r="C120" s="117"/>
+      <c r="D120" s="117"/>
+      <c r="E120" s="117"/>
+      <c r="F120" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="G120" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="H120" s="111"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="110"/>
-      <c r="C121" s="102"/>
-      <c r="D121" s="102"/>
-      <c r="E121" s="102"/>
-      <c r="F121" s="137"/>
-      <c r="G121" s="137"/>
-      <c r="H121" s="138"/>
+      <c r="B121" s="73"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="90"/>
+      <c r="H121" s="91"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C124" s="59"/>
-      <c r="D124" s="59"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="B124" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" s="127"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="128"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="14" t="s">
@@ -4039,103 +4050,103 @@
     </row>
     <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B128" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="C128" s="87" t="s">
+      <c r="B128" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="F128" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G128" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H128" s="118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B129" s="113"/>
+      <c r="C129" s="116"/>
+      <c r="D129" s="116"/>
+      <c r="E129" s="116"/>
+      <c r="F129" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="G129" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="H129" s="119"/>
+    </row>
+    <row r="130" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="114"/>
+      <c r="C130" s="117"/>
+      <c r="D130" s="117"/>
+      <c r="E130" s="117"/>
+      <c r="F130" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G130" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H130" s="120"/>
+    </row>
+    <row r="131" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="D131" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="D128" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E128" s="87" t="s">
+      <c r="E131" s="115" t="s">
+        <v>172</v>
+      </c>
+      <c r="F131" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="F128" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="G128" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H128" s="88" t="s">
+      <c r="G131" s="64"/>
+      <c r="H131" s="118" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B129" s="89"/>
-      <c r="C129" s="90"/>
-      <c r="D129" s="90"/>
-      <c r="E129" s="90"/>
-      <c r="F129" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="G129" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="H129" s="91"/>
-    </row>
-    <row r="130" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="92"/>
-      <c r="C130" s="93"/>
-      <c r="D130" s="93"/>
-      <c r="E130" s="93"/>
-      <c r="F130" s="81" t="s">
+    <row r="132" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B132" s="124"/>
+      <c r="C132" s="116"/>
+      <c r="D132" s="116"/>
+      <c r="E132" s="116"/>
+      <c r="F132" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="G130" s="81" t="s">
+      <c r="G132" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H132" s="119"/>
+    </row>
+    <row r="133" spans="2:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="125"/>
+      <c r="C133" s="117"/>
+      <c r="D133" s="117"/>
+      <c r="E133" s="117"/>
+      <c r="F133" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G133" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="H130" s="94"/>
-    </row>
-    <row r="131" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="C131" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D131" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="E131" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="F131" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="G131" s="95"/>
-      <c r="H131" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B132" s="104"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="90"/>
-      <c r="E132" s="90"/>
-      <c r="F132" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="G132" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="H132" s="91"/>
-    </row>
-    <row r="133" spans="2:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="107"/>
-      <c r="C133" s="93"/>
-      <c r="D133" s="93"/>
-      <c r="E133" s="93"/>
-      <c r="F133" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="G133" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="H133" s="94"/>
+      <c r="H133" s="120"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F185" s="65"/>
+      <c r="F185" s="44"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
@@ -4144,6 +4155,87 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="H60:H68"/>
+    <mergeCell ref="E60:E68"/>
+    <mergeCell ref="D60:D68"/>
+    <mergeCell ref="C60:C68"/>
+    <mergeCell ref="B60:B68"/>
+    <mergeCell ref="H128:H130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="H131:H133"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="C85:C91"/>
+    <mergeCell ref="D85:D91"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="H85:H91"/>
+    <mergeCell ref="H69:H75"/>
+    <mergeCell ref="E69:E75"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="H76:H84"/>
     <mergeCell ref="E92:E93"/>
     <mergeCell ref="B92:B94"/>
     <mergeCell ref="C92:C94"/>
@@ -4165,87 +4257,6 @@
     <mergeCell ref="C100:C108"/>
     <mergeCell ref="D100:D108"/>
     <mergeCell ref="E100:E108"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="C85:C91"/>
-    <mergeCell ref="D85:D91"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="H85:H91"/>
-    <mergeCell ref="H69:H75"/>
-    <mergeCell ref="E69:E75"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="H76:H84"/>
-    <mergeCell ref="H60:H68"/>
-    <mergeCell ref="E60:E68"/>
-    <mergeCell ref="D60:D68"/>
-    <mergeCell ref="C60:C68"/>
-    <mergeCell ref="B60:B68"/>
-    <mergeCell ref="H128:H130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="H131:H133"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="H55:H59"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="H50:H54"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G94" r:id="rId1"/>
@@ -4303,7 +4314,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="97" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -4320,10 +4331,10 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="61"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -4333,15 +4344,15 @@
       <c r="G6" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="138" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -4358,10 +4369,10 @@
       </c>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -4371,37 +4382,37 @@
       <c r="G8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="41" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="76" t="s">
+      <c r="B9" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="80" t="s">
-        <v>114</v>
+      <c r="F9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -4418,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E14"/>
+  <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,7 +4504,7 @@
         <v>86</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>89</v>
@@ -4503,96 +4514,58 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="39" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>102</v>
+        <v>293</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>86</v>
+      <c r="B9" s="66" t="s">
+        <v>294</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>86</v>
+        <v>302</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>95</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4617,363 +4590,363 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="121"/>
-      <c r="H3" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="I3" s="116" t="s">
-        <v>243</v>
-      </c>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="121"/>
+      <c r="B3" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="79"/>
+      <c r="H3" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="120" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="121"/>
-      <c r="H4" s="120" t="s">
-        <v>241</v>
-      </c>
-      <c r="I4" s="116" t="s">
-        <v>286</v>
-      </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="121"/>
+      <c r="B4" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="79"/>
+      <c r="H4" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="2:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="123" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="H5" s="122" t="s">
-        <v>244</v>
-      </c>
-      <c r="I5" s="130" t="s">
-        <v>287</v>
-      </c>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="131"/>
+      <c r="B5" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="139"/>
+      <c r="E5" s="140"/>
+      <c r="H5" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="141" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="142"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="H9" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="H10" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="H11" s="81">
+        <v>89093632903</v>
+      </c>
+      <c r="I11" s="79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="H12" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="H7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="117" t="s">
+      <c r="C13" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="79"/>
+      <c r="H13" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="H14" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="79"/>
+      <c r="H15" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="H16" s="86"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="79"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="79"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="79"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="79"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="79"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="79"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="79"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="118" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="119"/>
-      <c r="H9" s="117" t="s">
-        <v>289</v>
-      </c>
-      <c r="I9" s="119" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="120" t="s">
+      <c r="C27" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="79"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="121"/>
-      <c r="H10" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="I10" s="121" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="120" t="s">
+      <c r="C28" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="79"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="79"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="121"/>
-      <c r="H11" s="125">
-        <v>89093632903</v>
-      </c>
-      <c r="I11" s="121" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="120" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="H12" s="134" t="s">
-        <v>291</v>
-      </c>
-      <c r="I12" s="121" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="120" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="121"/>
-      <c r="H13" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="I13" s="121" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="120" t="s">
+      <c r="C30" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="79"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="121"/>
-      <c r="H14" s="134" t="s">
-        <v>293</v>
-      </c>
-      <c r="I14" s="121" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="120" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="121"/>
-      <c r="H15" s="135" t="s">
-        <v>294</v>
-      </c>
-      <c r="I15" s="128" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="H16" s="132"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="120" t="s">
+      <c r="C31" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="79"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="81">
+        <v>11</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="79"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="81">
+        <v>123</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="79"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="C17" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="121"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="121"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" s="121"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="120" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="121"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="120" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="121" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="120" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="121" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="120" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="121" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="C24" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D24" s="121"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="120" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" s="121"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="121"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="120" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="121"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="120" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" s="121"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="121"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="120" t="s">
+      <c r="C34" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="121"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="121"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="125">
-        <v>11</v>
-      </c>
-      <c r="C32" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="121"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="125">
-        <v>123</v>
-      </c>
-      <c r="C33" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="121"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="127" t="s">
-        <v>261</v>
-      </c>
-      <c r="D34" s="128"/>
+      <c r="D34" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
